--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modco\Documents\Projects\UiPath\RpaYandexMarket\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF07B9-BD03-40A6-AD3F-5ACA700390A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE53B-4480-4376-8947-03466ABA4052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,13 +121,13 @@
     <t>Минимальное кол-во отзывов по товару</t>
   </si>
   <si>
-    <t>\Data\Output</t>
-  </si>
-  <si>
     <t>ReportPath</t>
   </si>
   <si>
     <t>Путь сохранения отчета</t>
+  </si>
+  <si>
+    <t>Data\Output\</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -685,7 +685,7 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -694,13 +694,13 @@
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modco\Documents\Projects\UiPath\RpaYandexMarket\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEAE53B-4480-4376-8947-03466ABA4052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681C803-611C-4293-8802-AE6E0F9EA89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="2" r:id="rId1"/>
@@ -91,12 +91,6 @@
     <t>RamMax</t>
   </si>
   <si>
-    <t>HddMin</t>
-  </si>
-  <si>
-    <t>HddMax</t>
-  </si>
-  <si>
     <t>WeightMin</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Data\Output\</t>
+  </si>
+  <si>
+    <t>SsdMin</t>
+  </si>
+  <si>
+    <t>SsdMax</t>
   </si>
 </sst>
 </file>
@@ -616,10 +616,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>1.5</v>
@@ -660,47 +660,47 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>3.5</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modco\Documents\Projects\UiPath\RpaYandexMarket\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681C803-611C-4293-8802-AE6E0F9EA89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CCEF1-9BB1-4FDC-8805-38FA97B55A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>ProcessorName</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
     <t>Имя проиводителя процессоров</t>
   </si>
   <si>
@@ -128,6 +125,15 @@
   </si>
   <si>
     <t>SsdMax</t>
+  </si>
+  <si>
+    <t>ResultsCount</t>
+  </si>
+  <si>
+    <t>Кол-во итоговых строк</t>
+  </si>
+  <si>
+    <t>Intel</t>
   </si>
 </sst>
 </file>
@@ -495,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -586,121 +594,131 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>1.5</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>3.5</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modco\Documents\Projects\UiPath\RpaYandexMarket\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278CCEF1-9BB1-4FDC-8805-38FA97B55A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ED0CE4-DFDB-4F37-802C-E109971AC32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -605,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -627,7 +625,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>128</v>
+        <v>1000</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -638,7 +636,7 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>256</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -704,7 +702,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
